--- a/仕様書・進捗表/クレイジー仕様書.xlsx
+++ b/仕様書・進捗表/クレイジー仕様書.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="28035" windowHeight="12990" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="132" windowWidth="23256" windowHeight="12936" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム仕様" sheetId="1" r:id="rId1"/>
@@ -1977,12 +1977,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1992,11 +1986,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2007,7 +2007,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2443,8 +2443,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="29414193" y="20027305"/>
-          <a:ext cx="7402628" cy="6251765"/>
+          <a:off x="26483956" y="20387523"/>
+          <a:ext cx="6588674" cy="6362602"/>
           <a:chOff x="0" y="8936935"/>
           <a:chExt cx="11056270" cy="9356500"/>
         </a:xfrm>
@@ -8467,7 +8467,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1247775" y="16211550"/>
-          <a:ext cx="13744575" cy="3714750"/>
+          <a:ext cx="12355830" cy="3714750"/>
           <a:chOff x="1247775" y="16878300"/>
           <a:chExt cx="13744575" cy="3714750"/>
         </a:xfrm>
@@ -8729,7 +8729,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1266825" y="11953875"/>
-          <a:ext cx="13744575" cy="3714750"/>
+          <a:ext cx="12355830" cy="3714750"/>
           <a:chOff x="1266825" y="11953875"/>
           <a:chExt cx="13744575" cy="3714750"/>
         </a:xfrm>
@@ -8840,7 +8840,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="3314700" y="14668500"/>
-            <a:ext cx="9184245" cy="625812"/>
+            <a:ext cx="10401921" cy="625812"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -8862,7 +8862,7 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
             <a:spAutoFit/>
           </a:bodyPr>
           <a:lstStyle/>
@@ -9760,12 +9760,12 @@
   <dimension ref="C3:H33"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="44" t="s">
         <v>100</v>
       </c>
@@ -9774,7 +9774,7 @@
       <c r="F3" s="45"/>
     </row>
     <row r="22" spans="3:8" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="3:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="46" t="s">
         <v>101</v>
       </c>
@@ -9783,7 +9783,7 @@
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
     </row>
-    <row r="27" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="48" t="s">
         <v>102</v>
       </c>
@@ -9795,7 +9795,7 @@
       <c r="G27" s="26"/>
       <c r="H27" s="27"/>
     </row>
-    <row r="28" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="49"/>
       <c r="D28" s="28" t="s">
         <v>104</v>
@@ -9805,7 +9805,7 @@
       <c r="G28" s="28"/>
       <c r="H28" s="29"/>
     </row>
-    <row r="29" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="50"/>
       <c r="D29" s="30" t="s">
         <v>105</v>
@@ -9815,7 +9815,7 @@
       <c r="G29" s="30"/>
       <c r="H29" s="31"/>
     </row>
-    <row r="30" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="48" t="s">
         <v>106</v>
       </c>
@@ -9827,7 +9827,7 @@
       <c r="G30" s="26"/>
       <c r="H30" s="27"/>
     </row>
-    <row r="31" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="50"/>
       <c r="D31" s="33" t="s">
         <v>108</v>
@@ -9837,7 +9837,7 @@
       <c r="G31" s="30"/>
       <c r="H31" s="31"/>
     </row>
-    <row r="32" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="34" t="s">
         <v>109</v>
       </c>
@@ -9849,7 +9849,7 @@
       <c r="G32" s="30"/>
       <c r="H32" s="31"/>
     </row>
-    <row r="33" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="34" t="s">
         <v>111</v>
       </c>
@@ -9878,13 +9878,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P95"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A95" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="6:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="6:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="52" t="s">
         <v>113</v>
       </c>
@@ -9898,28 +9898,28 @@
       <c r="O3" s="51"/>
       <c r="P3" s="51"/>
     </row>
-    <row r="19" spans="4:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J19" s="40" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="4:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J20" s="41" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="4:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E25" s="53" t="s">
         <v>117</v>
       </c>
       <c r="F25" s="54"/>
     </row>
-    <row r="27" spans="4:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" s="38" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="2:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F40" s="55" t="s">
         <v>118</v>
       </c>
@@ -9927,7 +9927,7 @@
       <c r="H40" s="52"/>
       <c r="I40" s="52"/>
     </row>
-    <row r="43" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="38" t="s">
         <v>125</v>
       </c>
@@ -9938,12 +9938,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="10:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="10:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J52" s="35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="10:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="10:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J62" s="37" t="s">
         <v>122</v>
       </c>
@@ -9951,17 +9951,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="15:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="15:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O73" s="36" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="12:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="12:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L84" s="38" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="12:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="12:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L95" s="39" t="s">
         <v>127</v>
       </c>
@@ -9984,13 +9984,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F2"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="3:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="56" t="s">
         <v>0</v>
       </c>
@@ -10012,17 +10012,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="41.25" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="7" max="7" width="41.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="56" t="s">
         <v>1</v>
       </c>
@@ -10031,19 +10031,19 @@
       <c r="F3" s="56"/>
     </row>
     <row r="5" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:10" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
       <c r="H6" s="15" t="s">
         <v>6</v>
       </c>
@@ -10051,417 +10051,417 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="59" t="s">
+    <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="57" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="9"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="60"/>
+    <row r="8" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="58"/>
       <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="9"/>
       <c r="I8" s="11"/>
       <c r="J8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="60"/>
+    <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="58"/>
       <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="9"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="60"/>
+    <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="58"/>
       <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="9"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="60"/>
+    <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="58"/>
       <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="9"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="60"/>
+    <row r="12" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="58"/>
       <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
       <c r="H12" s="9"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="60"/>
+    <row r="13" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="58"/>
       <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="9"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="61"/>
+    <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="59"/>
       <c r="C14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
       <c r="H14" s="9"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
       <c r="H15" s="9"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="59" t="s">
+    <row r="16" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="57" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
       <c r="H16" s="9"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="60"/>
+    <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="58"/>
       <c r="C17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="9"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="60"/>
+    <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="58"/>
       <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
       <c r="H18" s="9"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="60"/>
+    <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="58"/>
       <c r="C19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
       <c r="H19" s="9"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="60"/>
+    <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="58"/>
       <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
       <c r="H20" s="9"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="60"/>
+    <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="58"/>
       <c r="C21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="9"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="60"/>
+    <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="58"/>
       <c r="C22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="9"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="60"/>
+    <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="58"/>
       <c r="C23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
       <c r="H23" s="9"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="60"/>
+    <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="58"/>
       <c r="C24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
       <c r="H24" s="9"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="60"/>
+    <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="58"/>
       <c r="C25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
       <c r="H25" s="9"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="60"/>
+    <row r="26" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="58"/>
       <c r="C26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
       <c r="H26" s="9"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="60"/>
+    <row r="27" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="58"/>
       <c r="C27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
       <c r="H27" s="9"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="60"/>
+    <row r="28" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="58"/>
       <c r="C28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
       <c r="H28" s="9"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="60"/>
+    <row r="29" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="58"/>
       <c r="C29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
       <c r="H29" s="9"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="60"/>
+    <row r="30" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="58"/>
       <c r="C30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
       <c r="H30" s="9"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="60"/>
+    <row r="31" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="58"/>
       <c r="C31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
       <c r="H31" s="9"/>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="60"/>
+    <row r="32" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="58"/>
       <c r="C32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
       <c r="H32" s="9"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="60"/>
+    <row r="33" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="58"/>
       <c r="C33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="58" t="s">
+      <c r="D33" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
       <c r="H33" s="9"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="60"/>
+    <row r="34" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="58"/>
       <c r="C34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
       <c r="H34" s="9"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="60"/>
+    <row r="35" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="58"/>
       <c r="C35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
       <c r="H35" s="9"/>
       <c r="I35" s="11"/>
     </row>
-    <row r="36" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="60"/>
+    <row r="36" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="58"/>
       <c r="C36" s="5" t="s">
         <v>70</v>
       </c>
@@ -10474,8 +10474,8 @@
       <c r="H36" s="9"/>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="60"/>
+    <row r="37" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="58"/>
       <c r="C37" s="5" t="s">
         <v>71</v>
       </c>
@@ -10488,8 +10488,8 @@
       <c r="H37" s="9"/>
       <c r="I37" s="11"/>
     </row>
-    <row r="38" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="61"/>
+    <row r="38" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="59"/>
       <c r="C38" s="5" t="s">
         <v>72</v>
       </c>
@@ -10502,88 +10502,118 @@
       <c r="H38" s="9"/>
       <c r="I38" s="11"/>
     </row>
-    <row r="39" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
       <c r="H39" s="9"/>
       <c r="I39" s="11"/>
     </row>
-    <row r="40" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="59" t="s">
+    <row r="40" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="57" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
       <c r="H40" s="9"/>
       <c r="I40" s="11"/>
     </row>
-    <row r="41" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="61"/>
+    <row r="41" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="59"/>
       <c r="C41" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
       <c r="H41" s="9"/>
       <c r="I41" s="11"/>
     </row>
-    <row r="42" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
       <c r="H42" s="10"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
+    <row r="43" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
     </row>
-    <row r="44" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
+    <row r="44" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
     </row>
-    <row r="45" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
+    <row r="45" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
     </row>
-    <row r="46" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
+    <row r="46" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
     </row>
-    <row r="47" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
+    <row r="47" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B16:B38"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="D42:G42"/>
@@ -10600,36 +10630,6 @@
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="B16:B38"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D14:G14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10641,13 +10641,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="56" t="s">
         <v>75</v>
       </c>
@@ -10657,7 +10657,7 @@
       <c r="G3" s="51"/>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="70" t="s">
         <v>76</v>
       </c>
@@ -10665,7 +10665,7 @@
       <c r="E6" s="71"/>
       <c r="F6" s="72"/>
     </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="24" t="s">
         <v>77</v>
       </c>
@@ -10673,7 +10673,7 @@
       <c r="E7" s="17"/>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="19" t="s">
         <v>78</v>
       </c>
@@ -10681,7 +10681,7 @@
       <c r="E8" s="18"/>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="21" t="s">
         <v>81</v>
       </c>
@@ -10689,7 +10689,7 @@
       <c r="E9" s="22"/>
       <c r="F9" s="23"/>
     </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="68" t="s">
         <v>79</v>
@@ -10697,7 +10697,7 @@
       <c r="D11" s="68"/>
       <c r="E11" s="69"/>
     </row>
-    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>80</v>
       </c>
@@ -10707,7 +10707,7 @@
       <c r="D12" s="18"/>
       <c r="E12" s="43"/>
     </row>
-    <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>83</v>
       </c>
@@ -10717,7 +10717,7 @@
       <c r="D13" s="18"/>
       <c r="E13" s="43"/>
     </row>
-    <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>85</v>
       </c>
@@ -10727,7 +10727,7 @@
       <c r="D14" s="18"/>
       <c r="E14" s="43"/>
     </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>87</v>
       </c>
@@ -10753,13 +10753,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="56" t="s">
         <v>89</v>
       </c>
@@ -10767,52 +10767,52 @@
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
     </row>
-    <row r="6" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="4:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="56" t="s">
         <v>99</v>
       </c>
@@ -10821,17 +10821,17 @@
       <c r="G28" s="51"/>
       <c r="H28" s="51"/>
     </row>
-    <row r="31" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="12:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="12:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L34" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="12:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="12:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L35" t="s">
         <v>147</v>
       </c>
@@ -10839,12 +10839,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="12:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="12:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L36" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="12:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="12:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L37" t="s">
         <v>150</v>
       </c>
@@ -10852,37 +10852,37 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="12:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="12:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L38" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="12:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="12:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L39" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="12:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="12:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L40" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="12:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="12:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L41" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="12:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="12:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L42" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="12:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="12:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L43" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="12:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="12:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L44" t="s">
         <v>157</v>
       </c>
@@ -10903,13 +10903,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
         <v>128</v>
       </c>
@@ -10918,7 +10918,7 @@
       <c r="F3" s="52"/>
     </row>
     <row r="5" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="78" t="s">
         <v>131</v>
       </c>
@@ -10934,8 +10934,8 @@
       <c r="H6" s="76"/>
       <c r="I6" s="77"/>
     </row>
-    <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="61" t="s">
+    <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="59" t="s">
         <v>129</v>
       </c>
       <c r="C7" s="79"/>
@@ -10950,52 +10950,52 @@
       <c r="H7" s="79"/>
       <c r="I7" s="82"/>
     </row>
-    <row r="8" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="57" t="s">
+      <c r="C8" s="62"/>
+      <c r="D8" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="H8" s="58"/>
+      <c r="H8" s="62"/>
       <c r="I8" s="73"/>
     </row>
-    <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58" t="s">
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="H9" s="58"/>
+      <c r="H9" s="62"/>
       <c r="I9" s="73"/>
     </row>
-    <row r="10" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67" t="s">
+      <c r="C10" s="60"/>
+      <c r="D10" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67" t="s">
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="H10" s="67"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="74"/>
     </row>
   </sheetData>
@@ -11027,13 +11027,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="55" t="s">
         <v>144</v>
       </c>
@@ -11041,7 +11041,7 @@
       <c r="E3" s="52"/>
       <c r="F3" s="52"/>
     </row>
-    <row r="6" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>145</v>
       </c>
